--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam2-Itgb1.xlsx
@@ -537,7 +537,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H2">
         <v>0.195479</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>6.447335553598666</v>
+        <v>10.95398031243089</v>
       </c>
       <c r="R2">
-        <v>58.02601998238799</v>
+        <v>98.585822811878</v>
       </c>
       <c r="S2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="T2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H3">
         <v>0.195479</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
         <v>10.62143198062811</v>
       </c>
       <c r="R3">
-        <v>95.59288782565299</v>
+        <v>95.59288782565301</v>
       </c>
       <c r="S3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="T3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H4">
         <v>0.195479</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>9.400767339867777</v>
+        <v>10.81608308362333</v>
       </c>
       <c r="R4">
-        <v>84.60690605881</v>
+        <v>97.34474775261</v>
       </c>
       <c r="S4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="T4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06515966666666666</v>
+        <v>0.06515966666666667</v>
       </c>
       <c r="H5">
         <v>0.195479</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>4.261188511697778</v>
+        <v>4.315311933581889</v>
       </c>
       <c r="R5">
-        <v>38.35069660528001</v>
+        <v>38.837807402237</v>
       </c>
       <c r="S5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="T5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
     </row>
   </sheetData>
